--- a/biology/Médecine/Transmission_récessive_liée_à_l'X/Transmission_récessive_liée_à_l'X.xlsx
+++ b/biology/Médecine/Transmission_récessive_liée_à_l'X/Transmission_récessive_liée_à_l'X.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Transmission_r%C3%A9cessive_li%C3%A9e_%C3%A0_l%27X</t>
+          <t>Transmission_récessive_liée_à_l'X</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une maladie génétique est dite de transmission  récessive liée à l'X quand :
 le gène impliqué dans la mutation est sur le chromosome sexuel  X
@@ -501,7 +513,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Transmission_r%C3%A9cessive_li%C3%A9e_%C3%A0_l%27X</t>
+          <t>Transmission_récessive_liée_à_l'X</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -519,90 +531,234 @@
           <t>Schéma général de la transmission récessive liée à l'X</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Au cours de la gamétogenèse, les cellules mâles ou femelles passent de 2n chromosomes (cellule diploïde) à n chromosome (cellule haploïde). L'allèle anormal est donc présent dans la  moitié des gamètes.
 Dans les schémas les gamètes porteuses de l'allèle normal (dit sauvage) sont bleues, les gamètes porteuses de l'allèle mutant sont rouges. Les personnes malades sont rouges, les femmes non malades mais porteuse d'un allèle mutant (hétérozygote) sont violettes, les personnes non porteuse de la mutation (homozygote sauvage) sont bleues
-Union d'un homme malade et d'une femme saine non porteuse
-Comme ce schéma le montre :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Transmission_récessive_liée_à_l'X</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Transmission_r%C3%A9cessive_li%C3%A9e_%C3%A0_l%27X</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Schéma général de la transmission récessive liée à l'X</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Union d'un homme malade et d'une femme saine non porteuse</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme ce schéma le montre :
 Aucun garçon ne sera atteint puisque l'Y leur est obligatoirement transmis.
 Toutes les filles seront porteuses mais saines. Elles peuvent, ou pas, transmettre la maladie selon le chromosome X qu'elles transmettront à leurs enfants (voir schémas suivants). Elles sont appelées des conductrices
-Union d'un homme sain et d'une femme porteuse
-Comme ce schéma le montre, ce couple a un risque à chaque grossesse 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Transmission_récessive_liée_à_l'X</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Transmission_r%C3%A9cessive_li%C3%A9e_%C3%A0_l%27X</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Schéma général de la transmission récessive liée à l'X</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Union d'un homme sain et d'une femme porteuse</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme ce schéma le montre, ce couple a un risque à chaque grossesse 
 1/4 d'avoir un garçon porteur de l'allèle anormal donc malade
 1/4 d'avoir un garçon non porteur de l'allèle anormal donc sain
 1/4 d'avoir une fille  porteuse de l'allèle  anormal donc conductrice
 1/4 d'avoir une fille non porteuse  de l'allèle anormal donc saine
-Union d'un homme malade et d'une femme porteuse
-Comme ce schéma le montre :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Transmission_récessive_liée_à_l'X</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Transmission_r%C3%A9cessive_li%C3%A9e_%C3%A0_l%27X</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Schéma général de la transmission récessive liée à l'X</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Union d'un homme malade et d'une femme porteuse</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme ce schéma le montre :
 1/4 d'avoir un garçon porteur de l'allèle  anormal donc malade
 1/4 d'avoir un garçon non porteur de l'allèle anormal  donc sain
 1/4 d'avoir une fille  porteuse de l'allèle anormal donc conductrice
 1/4 d'avoir une fille  porteuse  des deux allèles anormaux donc malade
-Union d'un malade et d'une malade
-Tous les enfants de ce couple seront malades. En pratique, la probabilité de survenue de cette configuration est extrêmement faible.
 </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Transmission_r%C3%A9cessive_li%C3%A9e_%C3%A0_l%27X</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Transmission_récessive_liée_à_l'X</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Transmission_r%C3%A9cessive_li%C3%A9e_%C3%A0_l%27X</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Schéma général de la transmission récessive liée à l'X</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Union d'un malade et d'une malade</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tous les enfants de ce couple seront malades. En pratique, la probabilité de survenue de cette configuration est extrêmement faible.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Transmission_récessive_liée_à_l'X</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Transmission_r%C3%A9cessive_li%C3%A9e_%C3%A0_l%27X</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Base générale du conseil génétique dans les maladies récessives liées à l'X</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>En génétique, le proposant désigne la personne atteinte de la maladie génétique à partir duquel on fait le conseil génétique.
-Parent d'un proposant
-Fratrie d'un proposant
-Descendance d'un proposant</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Transmission_r%C3%A9cessive_li%C3%A9e_%C3%A0_l%27X</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En génétique, le proposant désigne la personne atteinte de la maladie génétique à partir duquel on fait le conseil génétique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Transmission_récessive_liée_à_l'X</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Transmission_r%C3%A9cessive_li%C3%A9e_%C3%A0_l%27X</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Exemples</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Daltonisme
 Maladie de Charcot-Marie-Tooth type X
